--- a/results/SCG.xlsx
+++ b/results/SCG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3842,6 +3842,1148 @@
       </c>
       <c r="P69" t="n">
         <v>-28.92943556734091</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>28</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>1.246038794517517</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7.8675107493104</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>12.60892816357084</v>
+      </c>
+      <c r="H70" t="n">
+        <v>50</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-19.55717480474675</v>
+      </c>
+      <c r="J70" t="n">
+        <v>7</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-9.963089322576513</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4.74141741426044</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-17.83060007188691</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-22.57201748614735</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>52</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>1.232639193534851</v>
+      </c>
+      <c r="E71" t="n">
+        <v>23.16006370134525</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>31.39815881539322</v>
+      </c>
+      <c r="H71" t="n">
+        <v>48</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-7.335867344762787</v>
+      </c>
+      <c r="J71" t="n">
+        <v>9</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-7.335867344762787</v>
+      </c>
+      <c r="N71" t="n">
+        <v>8.238095114047962</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-30.49593104610804</v>
+      </c>
+      <c r="P71" t="n">
+        <v>-38.73402616015601</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>73</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>1.363763928413391</v>
+      </c>
+      <c r="E72" t="n">
+        <v>27.76974218976247</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>28.92081987684699</v>
+      </c>
+      <c r="H72" t="n">
+        <v>52</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-5.415135524404695</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>1.15107768708452</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>149</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>1.687347769737244</v>
+      </c>
+      <c r="E73" t="n">
+        <v>14.23075447601501</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>22.78096548929607</v>
+      </c>
+      <c r="H73" t="n">
+        <v>44</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-9.615385279482428</v>
+      </c>
+      <c r="J73" t="n">
+        <v>8</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>36</v>
+      </c>
+      <c r="M73" t="n">
+        <v>7.696125450996181</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.550211013281061</v>
+      </c>
+      <c r="O73" t="n">
+        <v>-6.53462902501883</v>
+      </c>
+      <c r="P73" t="n">
+        <v>-15.08484003829989</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>176</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>1.789251089096069</v>
+      </c>
+      <c r="E74" t="n">
+        <v>25.8016915616331</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>32.422826369288</v>
+      </c>
+      <c r="H74" t="n">
+        <v>45</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-4.062500316109237</v>
+      </c>
+      <c r="J74" t="n">
+        <v>9</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>9</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.562501873834987</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6.621134807654908</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-24.23918968779811</v>
+      </c>
+      <c r="P74" t="n">
+        <v>-30.86032449545302</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>203</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>2.042887926101685</v>
+      </c>
+      <c r="E75" t="n">
+        <v>23.35487698945425</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>25.29160991730906</v>
+      </c>
+      <c r="H75" t="n">
+        <v>52</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-4.519774375072537</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>22</v>
+      </c>
+      <c r="M75" t="n">
+        <v>8.442954904672245</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.936732927854813</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-14.911922084782</v>
+      </c>
+      <c r="P75" t="n">
+        <v>-16.84865501263682</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>211</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>2.0832839012146</v>
+      </c>
+      <c r="E76" t="n">
+        <v>21.54733285679002</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>22.86217590166646</v>
+      </c>
+      <c r="H76" t="n">
+        <v>45</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-4.016637602638463</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>14</v>
+      </c>
+      <c r="M76" t="n">
+        <v>6.340188735862469</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1.314843044876444</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-15.20714412092755</v>
+      </c>
+      <c r="P76" t="n">
+        <v>-16.52198716580399</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>243</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>2.345683336257935</v>
+      </c>
+      <c r="E77" t="n">
+        <v>38.52537005353149</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>44.10889333211798</v>
+      </c>
+      <c r="H77" t="n">
+        <v>51</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-8.916803833240392</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.1655637048255991</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5.58352327858649</v>
+      </c>
+      <c r="O77" t="n">
+        <v>-38.35980634870589</v>
+      </c>
+      <c r="P77" t="n">
+        <v>-43.94332962729238</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>270</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>2.647828102111816</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8.963319693608634</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>27.66456758507744</v>
+      </c>
+      <c r="H78" t="n">
+        <v>24</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-3.18379171797038</v>
+      </c>
+      <c r="J78" t="n">
+        <v>40</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>36</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5.59580781062429</v>
+      </c>
+      <c r="N78" t="n">
+        <v>18.7012478914688</v>
+      </c>
+      <c r="O78" t="n">
+        <v>-3.367511882984344</v>
+      </c>
+      <c r="P78" t="n">
+        <v>-22.06875977445315</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>279</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>2.837738513946533</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.889135059011095</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>19.12085205680453</v>
+      </c>
+      <c r="H79" t="n">
+        <v>15</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-9.663037743195376</v>
+      </c>
+      <c r="J79" t="n">
+        <v>31</v>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>27</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-1.470996706697457</v>
+      </c>
+      <c r="N79" t="n">
+        <v>15.23171699779343</v>
+      </c>
+      <c r="O79" t="n">
+        <v>-5.360131765708553</v>
+      </c>
+      <c r="P79" t="n">
+        <v>-20.59184876350198</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>361</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>2.80666732788086</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.511431856701504</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>11.32887560548674</v>
+      </c>
+      <c r="H80" t="n">
+        <v>35</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-11.69452457551446</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14</v>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>41</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3.022770271464107</v>
+      </c>
+      <c r="N80" t="n">
+        <v>9.817443748785239</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.511338414762603</v>
+      </c>
+      <c r="P80" t="n">
+        <v>-8.306105334022636</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>362</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>2.766476392745972</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.8470847833699174</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>12.94624404927052</v>
+      </c>
+      <c r="H81" t="n">
+        <v>34</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-10.4116364785305</v>
+      </c>
+      <c r="J81" t="n">
+        <v>13</v>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>40</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4.519468919699076</v>
+      </c>
+      <c r="N81" t="n">
+        <v>13.79332883264043</v>
+      </c>
+      <c r="O81" t="n">
+        <v>5.366553703068993</v>
+      </c>
+      <c r="P81" t="n">
+        <v>-8.426775129571441</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>387</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>2.831804990768433</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-4.555893347823535</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>10.34061979205806</v>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-6.865022740457345</v>
+      </c>
+      <c r="J82" t="n">
+        <v>52</v>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>15</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2.108246963089976</v>
+      </c>
+      <c r="N82" t="n">
+        <v>14.8965131398816</v>
+      </c>
+      <c r="O82" t="n">
+        <v>6.664140310913512</v>
+      </c>
+      <c r="P82" t="n">
+        <v>-8.232372828968089</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>427</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>2.813739538192749</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.1926420808429038</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>8.564172678250491</v>
+      </c>
+      <c r="H83" t="n">
+        <v>48</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-6.267054985453157</v>
+      </c>
+      <c r="J83" t="n">
+        <v>12</v>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>11</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-4.201334403350574</v>
+      </c>
+      <c r="N83" t="n">
+        <v>8.371530597407588</v>
+      </c>
+      <c r="O83" t="n">
+        <v>-4.393976484193479</v>
+      </c>
+      <c r="P83" t="n">
+        <v>-12.76550708160106</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>433</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>2.986148357391357</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-61.0584396702418</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2.296091331119374</v>
+      </c>
+      <c r="H84" t="n">
+        <v>42</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-65.1846968836839</v>
+      </c>
+      <c r="J84" t="n">
+        <v>52</v>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-9.73238404977511</v>
+      </c>
+      <c r="N84" t="n">
+        <v>63.35453100136118</v>
+      </c>
+      <c r="O84" t="n">
+        <v>51.32605562046669</v>
+      </c>
+      <c r="P84" t="n">
+        <v>-12.02847538089448</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>455</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>3.021062612533569</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-45.4491208645079</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.113861006607678</v>
+      </c>
+      <c r="H85" t="n">
+        <v>20</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-65.58705543488158</v>
+      </c>
+      <c r="J85" t="n">
+        <v>30</v>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>14</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-4.455446599409451</v>
+      </c>
+      <c r="N85" t="n">
+        <v>46.56298187111557</v>
+      </c>
+      <c r="O85" t="n">
+        <v>40.99367426509845</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-5.569307606017129</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>517</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>1.848242521286011</v>
+      </c>
+      <c r="E86" t="n">
+        <v>35.24957330867248</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>38.76255143003223</v>
+      </c>
+      <c r="H86" t="n">
+        <v>51</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-12.08334119783477</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>23</v>
+      </c>
+      <c r="M86" t="n">
+        <v>23.08822226158078</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3.512978121359751</v>
+      </c>
+      <c r="O86" t="n">
+        <v>-12.1613510470917</v>
+      </c>
+      <c r="P86" t="n">
+        <v>-15.67432916845145</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>518</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>2.033066511154175</v>
+      </c>
+      <c r="E87" t="n">
+        <v>22.5549614244792</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>27.14578293557387</v>
+      </c>
+      <c r="H87" t="n">
+        <v>52</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-9.090909090909069</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>22</v>
+      </c>
+      <c r="M87" t="n">
+        <v>11.8983983087728</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4.590821511094674</v>
+      </c>
+      <c r="O87" t="n">
+        <v>-10.65656311570639</v>
+      </c>
+      <c r="P87" t="n">
+        <v>-15.24738462680107</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>567</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>2.524087905883789</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-11.35171069763154</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>6.751329032658401</v>
+      </c>
+      <c r="H88" t="n">
+        <v>18</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-20.2659865852501</v>
+      </c>
+      <c r="J88" t="n">
+        <v>34</v>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>27</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-1.485671958039791</v>
+      </c>
+      <c r="N88" t="n">
+        <v>18.10303973028994</v>
+      </c>
+      <c r="O88" t="n">
+        <v>9.866038739591747</v>
+      </c>
+      <c r="P88" t="n">
+        <v>-8.237000990698192</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>621</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>2.451068639755249</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-4.696208667123777</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>11.44774054863556</v>
+      </c>
+      <c r="H89" t="n">
+        <v>16</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-12.45349564669323</v>
+      </c>
+      <c r="J89" t="n">
+        <v>52</v>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.6968611628567291</v>
+      </c>
+      <c r="N89" t="n">
+        <v>16.14394921575933</v>
+      </c>
+      <c r="O89" t="n">
+        <v>5.393069829980506</v>
+      </c>
+      <c r="P89" t="n">
+        <v>-10.75087938577883</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>632</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>2.596253633499145</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.2610226368079765</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.667508501527054</v>
+      </c>
+      <c r="H90" t="n">
+        <v>50</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-17.3491801525649</v>
+      </c>
+      <c r="J90" t="n">
+        <v>41</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>19</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-7.978739474815917</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.928531138335031</v>
+      </c>
+      <c r="O90" t="n">
+        <v>-7.717716838007941</v>
+      </c>
+      <c r="P90" t="n">
+        <v>-13.64624797634297</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>686</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>2.806775331497192</v>
+      </c>
+      <c r="E91" t="n">
+        <v>25.49573925401715</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>31.95758318551618</v>
+      </c>
+      <c r="H91" t="n">
+        <v>33</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-6.451606948963505</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>17</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4.444437271399908</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.461843931499036</v>
+      </c>
+      <c r="O91" t="n">
+        <v>-21.05130198261724</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-27.51314591411627</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>715</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>3.226465225219727</v>
+      </c>
+      <c r="E92" t="n">
+        <v>23.04487268539729</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>24.28462571167956</v>
+      </c>
+      <c r="H92" t="n">
+        <v>52</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-2.182565318491165</v>
+      </c>
+      <c r="J92" t="n">
+        <v>33</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>9</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4.437862564192298</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.239753026282266</v>
+      </c>
+      <c r="O92" t="n">
+        <v>-18.60701012120499</v>
+      </c>
+      <c r="P92" t="n">
+        <v>-19.84676314748726</v>
       </c>
     </row>
   </sheetData>
@@ -3855,7 +4997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4068,40 +5210,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>69.56521739130434</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.60606683795938</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.963319693608634</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.73852399060612</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19.99072970938202</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-14.00752976438482</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.38466287142263</v>
+      </c>
+      <c r="J4" t="n">
+        <v>95.65217391304348</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.68181818181818</v>
+      </c>
+      <c r="L4" t="n">
+        <v>31.81818181818182</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-4.989723397220886</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>10.37131674580955</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>10.02416116876216</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>19.58596882217141</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>21.51484449047451</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-12.27912169127742</v>
       </c>
     </row>
